--- a/REGULAR/DSWD/DIMAPILIS, VILMA.xlsx
+++ b/REGULAR/DSWD/DIMAPILIS, VILMA.xlsx
@@ -1527,7 +1527,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K637" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K638" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1856,12 +1856,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K637"/>
+  <dimension ref="A2:M638"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A581" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D594" sqref="D594"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A584" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="I595" sqref="I595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1946,7 +1946,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1959,7 +1959,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1976,7 +1976,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2020,7 +2020,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.73399999999998</v>
+        <v>177.98399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2030,12 +2030,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.5</v>
+        <v>195.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2060,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="49">
         <v>35976</v>
@@ -2077,7 +2078,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36008</v>
       </c>
@@ -2117,7 +2118,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -2134,7 +2135,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36039</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>36056</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>46</v>
@@ -12580,9 +12581,7 @@
       <c r="A508" s="40">
         <v>43466</v>
       </c>
-      <c r="B508" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B508" s="20"/>
       <c r="C508" s="13">
         <v>1.25</v>
       </c>
@@ -12596,23 +12595,17 @@
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="50">
-        <v>43522</v>
-      </c>
+      <c r="K508" s="50"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43497</v>
       </c>
-      <c r="B509" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B509" s="20"/>
       <c r="C509" s="13">
         <v>1.25</v>
       </c>
-      <c r="D509" s="39">
-        <v>1</v>
-      </c>
+      <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
       <c r="G509" s="42">
@@ -12622,9 +12615,7 @@
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="50">
-        <v>43522</v>
-      </c>
+      <c r="K509" s="50"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
@@ -14434,13 +14425,15 @@
         <v>45139</v>
       </c>
       <c r="B593" s="20"/>
-      <c r="C593" s="13"/>
+      <c r="C593" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D593" s="39"/>
       <c r="E593" s="9"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G593" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H593" s="39"/>
       <c r="I593" s="9"/>
@@ -14451,9 +14444,13 @@
       <c r="A594" s="40">
         <v>45170</v>
       </c>
-      <c r="B594" s="20"/>
+      <c r="B594" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C594" s="13"/>
-      <c r="D594" s="39"/>
+      <c r="D594" s="39">
+        <v>1</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
       <c r="G594" s="42" t="str">
@@ -14463,29 +14460,35 @@
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="50">
+        <v>45184</v>
+      </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A595" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B595" s="20"/>
+      <c r="A595" s="40"/>
+      <c r="B595" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="42" t="str">
+      <c r="G595" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H595" s="39"/>
+      <c r="H595" s="39">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="20"/>
+      <c r="K595" s="50">
+        <v>45183</v>
+      </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -14503,7 +14506,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -14521,7 +14524,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -14539,7 +14542,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -14557,7 +14560,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -14575,7 +14578,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -14593,7 +14596,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -14611,7 +14614,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -14629,7 +14632,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -14647,7 +14650,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -14665,7 +14668,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -14683,7 +14686,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -14700,7 +14703,9 @@
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40"/>
+      <c r="A608" s="40">
+        <v>45566</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
@@ -15164,20 +15169,36 @@
       <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A637" s="41"/>
-      <c r="B637" s="15"/>
-      <c r="C637" s="42"/>
-      <c r="D637" s="43"/>
-      <c r="E637" s="53"/>
-      <c r="F637" s="15"/>
+      <c r="A637" s="40"/>
+      <c r="B637" s="20"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="39"/>
+      <c r="E637" s="9"/>
+      <c r="F637" s="20"/>
       <c r="G637" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H637" s="43"/>
-      <c r="I637" s="53"/>
-      <c r="J637" s="12"/>
-      <c r="K637" s="15"/>
+      <c r="H637" s="39"/>
+      <c r="I637" s="9"/>
+      <c r="J637" s="11"/>
+      <c r="K637" s="20"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="41"/>
+      <c r="B638" s="15"/>
+      <c r="C638" s="42"/>
+      <c r="D638" s="43"/>
+      <c r="E638" s="53"/>
+      <c r="F638" s="15"/>
+      <c r="G638" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="43"/>
+      <c r="I638" s="53"/>
+      <c r="J638" s="12"/>
+      <c r="K638" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15224,7 +15245,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15350,7 +15371,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>372.23399999999998</v>
+        <v>373.73399999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
